--- a/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D15FA3-5831-4C99-9078-A3BCC9022DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{149D2A57-D143-4CCB-9812-71C63E454444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1B434033-E1A4-4B06-81DC-B75526EE09BC}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{437ED0B3-C870-445E-80DF-A1F9D988435E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,93 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,42%</t>
   </si>
   <si>
@@ -101,9 +182,6 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -131,58 +209,55 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -200,9 +275,6 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>97,68%</t>
   </si>
   <si>
@@ -218,9 +290,6 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>4,01%</t>
   </si>
   <si>
@@ -230,75 +299,6 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
     <t>98,77%</t>
   </si>
   <si>
@@ -350,6 +350,90 @@
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
   </si>
   <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -398,58 +482,46 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>98,3%</t>
@@ -482,78 +554,6 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>98,34%</t>
   </si>
   <si>
@@ -605,15 +605,60 @@
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>97,21%</t>
   </si>
   <si>
@@ -632,9 +677,6 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>2,83%</t>
   </si>
   <si>
@@ -653,28 +695,34 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -719,54 +767,6 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>99,0%</t>
   </si>
   <si>
@@ -806,6 +806,84 @@
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
   </si>
   <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>97,14%</t>
   </si>
   <si>
@@ -836,46 +914,46 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -912,84 +990,6 @@
   </si>
   <si>
     <t>0,34%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
   </si>
   <si>
     <t>98,22%</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29165548-EF63-41F3-B966-F948E99ED7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94A40F0-F443-423D-A9E7-6BDE58AC78BC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>204934</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,85 +1544,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>189948</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>615</v>
-      </c>
-      <c r="N4" s="7">
-        <v>394882</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3293</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3258</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6551</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,54 +1631,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>208227</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>193206</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>625</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>401433</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         <v>124863</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -1705,13 +1705,13 @@
         <v>112705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>358</v>
@@ -1720,19 +1720,19 @@
         <v>237569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1741,13 +1741,13 @@
         <v>1436</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1756,13 +1756,13 @@
         <v>1245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1771,13 +1771,13 @@
         <v>2681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1792,13 @@
         <v>126299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>171</v>
@@ -1807,13 +1807,13 @@
         <v>113950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>362</v>
@@ -1822,117 +1822,117 @@
         <v>240250</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7">
-        <v>205123</v>
+        <v>204934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="I10" s="7">
-        <v>201675</v>
+        <v>189948</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="N10" s="7">
-        <v>406799</v>
+        <v>394882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>1350</v>
+        <v>3293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>3276</v>
+        <v>3258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>4626</v>
+        <v>6551</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,153 +1941,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D12" s="7">
-        <v>206473</v>
+        <v>208227</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="I12" s="7">
-        <v>204951</v>
+        <v>193206</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="N12" s="7">
-        <v>411425</v>
+        <v>401433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>146442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="7">
+        <v>223</v>
+      </c>
+      <c r="I13" s="7">
+        <v>134628</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>450</v>
+      </c>
+      <c r="N13" s="7">
+        <v>281070</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1053</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,147 +2096,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>135681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>456</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>284855</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="D16" s="7">
-        <v>146442</v>
+        <v>205123</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="I16" s="7">
-        <v>134628</v>
+        <v>201675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="N16" s="7">
-        <v>281070</v>
+        <v>406799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>2732</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
       <c r="I17" s="7">
-        <v>1053</v>
+        <v>3276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>3785</v>
+        <v>4626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>84</v>
@@ -2251,49 +2251,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="D18" s="7">
-        <v>149174</v>
+        <v>206473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="I18" s="7">
-        <v>135681</v>
+        <v>204951</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="N18" s="7">
-        <v>284855</v>
+        <v>411425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>989</v>
@@ -2352,7 +2352,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>95</v>
@@ -2412,13 +2412,13 @@
         <v>715618</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -2427,13 +2427,13 @@
         <v>670513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2077</v>
@@ -2442,13 +2442,13 @@
         <v>1386130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DCC2C-D977-4116-8F55-C716F26EEADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F49197-01AE-4342-932F-75C0CBC1DBD9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,10 +2587,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>199810</v>
+        <v>21849</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>103</v>
@@ -2599,88 +2599,88 @@
         <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17908</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="7">
-        <v>281</v>
-      </c>
-      <c r="I4" s="7">
-        <v>181870</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39757</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7">
-        <v>570</v>
-      </c>
-      <c r="N4" s="7">
-        <v>381679</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3850</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>665</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4516</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,54 +2689,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>203660</v>
+        <v>22850</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>182535</v>
+        <v>17908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>577</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>386195</v>
+        <v>40758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2748,13 @@
         <v>116666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -2763,13 +2763,13 @@
         <v>104669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
@@ -2778,19 +2778,19 @@
         <v>221335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2799,13 +2799,13 @@
         <v>2103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2814,13 +2814,13 @@
         <v>2821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2829,13 +2829,13 @@
         <v>4924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2850,13 @@
         <v>118769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -2865,13 +2865,13 @@
         <v>107490</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -2880,114 +2880,114 @@
         <v>226259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7">
-        <v>189142</v>
+        <v>199810</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="7">
+        <v>281</v>
+      </c>
+      <c r="I10" s="7">
+        <v>181870</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>570</v>
+      </c>
+      <c r="N10" s="7">
+        <v>381679</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>247</v>
-      </c>
-      <c r="I10" s="7">
-        <v>188220</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="7">
-        <v>504</v>
-      </c>
-      <c r="N10" s="7">
-        <v>377361</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>3278</v>
+        <v>3850</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>665</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7596</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4516</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10875</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>146</v>
@@ -2999,153 +2999,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D12" s="7">
-        <v>192420</v>
+        <v>203660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="I12" s="7">
-        <v>195816</v>
+        <v>182535</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="N12" s="7">
-        <v>388236</v>
+        <v>386195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>21849</v>
+        <v>150443</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>219</v>
+      </c>
+      <c r="I13" s="7">
+        <v>140639</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17908</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="N13" s="7">
-        <v>39757</v>
+        <v>291081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1001</v>
+        <v>1187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>1001</v>
+        <v>3157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,150 +3154,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="D15" s="7">
-        <v>22850</v>
+        <v>151630</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>17908</v>
+        <v>142608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="N15" s="7">
-        <v>40758</v>
+        <v>294238</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="D16" s="7">
-        <v>150443</v>
+        <v>189142</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H16" s="7">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="I16" s="7">
-        <v>140639</v>
+        <v>188220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="N16" s="7">
-        <v>291081</v>
+        <v>377361</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1187</v>
+        <v>3278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>1969</v>
+        <v>7596</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="7">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7">
+        <v>10875</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3157</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>170</v>
@@ -3309,49 +3309,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7">
-        <v>151630</v>
+        <v>192420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="I18" s="7">
-        <v>142608</v>
+        <v>195816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="N18" s="7">
-        <v>294238</v>
+        <v>388236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3398,7 @@
         <v>1311215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>177</v>
@@ -3410,7 +3410,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>17</v>
@@ -3449,7 +3449,7 @@
         <v>24471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>185</v>
@@ -3470,13 +3470,13 @@
         <v>689330</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>932</v>
@@ -3485,13 +3485,13 @@
         <v>646357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1917</v>
@@ -3500,13 +3500,13 @@
         <v>1335686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150DB79-6AC5-41BD-8F89-5E0F9ECE5DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6979A3-62A2-4079-A81F-BABE7AB015DD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,100 +3645,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>194181</v>
+        <v>21971</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20693</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42664</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="7">
-        <v>296</v>
-      </c>
-      <c r="I4" s="7">
-        <v>183636</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="7">
-        <v>583</v>
-      </c>
-      <c r="N4" s="7">
-        <v>377816</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1941</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1807</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3748</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,54 +3747,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>196122</v>
+        <v>21971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>185443</v>
+        <v>20693</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>589</v>
+        <v>48</v>
       </c>
       <c r="N6" s="7">
-        <v>381564</v>
+        <v>42664</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3809,10 +3809,10 @@
         <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
@@ -3824,10 +3824,10 @@
         <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -3836,19 +3836,19 @@
         <v>205740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -3860,10 +3860,10 @@
         <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3875,10 +3875,10 @@
         <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3887,13 +3887,13 @@
         <v>2128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3908,13 @@
         <v>107698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>146</v>
@@ -3923,13 +3923,13 @@
         <v>100170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>291</v>
@@ -3938,117 +3938,117 @@
         <v>207868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>184618</v>
+        <v>194181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>181562</v>
+        <v>183636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="N10" s="7">
-        <v>366180</v>
+        <v>377816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1301</v>
+        <v>1941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2784</v>
+        <v>1807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>4085</v>
+        <v>3748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,153 +4057,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="D12" s="7">
-        <v>185919</v>
+        <v>196122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="I12" s="7">
-        <v>184346</v>
+        <v>185443</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="N12" s="7">
-        <v>370265</v>
+        <v>381564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>228</v>
+      </c>
+      <c r="D13" s="7">
+        <v>153710</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <v>21971</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>20693</v>
+        <v>141477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="N13" s="7">
-        <v>42664</v>
+        <v>295186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,150 +4212,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>21971</v>
+        <v>155688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>20693</v>
+        <v>142571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>48</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>42664</v>
+        <v>298259</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>259</v>
+      </c>
+      <c r="D16" s="7">
+        <v>184618</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="7">
-        <v>153710</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>246</v>
+      </c>
+      <c r="I16" s="7">
+        <v>181562</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7">
+        <v>505</v>
+      </c>
+      <c r="N16" s="7">
+        <v>366180</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="7">
-        <v>235</v>
-      </c>
-      <c r="I16" s="7">
-        <v>141477</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>463</v>
-      </c>
-      <c r="N16" s="7">
-        <v>295186</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1978</v>
+        <v>1301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2784</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1094</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4085</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3073</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>241</v>
@@ -4367,49 +4367,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D18" s="7">
-        <v>155688</v>
+        <v>185919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>142571</v>
+        <v>184346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="N18" s="7">
-        <v>298259</v>
+        <v>370265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4447,7 @@
         <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>1887</v>
@@ -4468,7 +4468,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -4495,7 +4495,7 @@
         <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>101</v>
@@ -4528,13 +4528,13 @@
         <v>667398</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>954</v>
@@ -4543,13 +4543,13 @@
         <v>633222</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1907</v>
@@ -4558,13 +4558,13 @@
         <v>1300620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89F288-E79C-48A3-B975-E14C03B8500A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0855C4-565E-419C-A3B7-7CDA8193530A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,100 +4703,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>245537</v>
+        <v>12174</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>191575</v>
+        <v>16338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>437112</v>
+        <v>28511</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>2467</v>
+        <v>524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>2467</v>
+        <v>974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,54 +4805,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>248004</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>191575</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>619</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>439579</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4864,13 +4864,13 @@
         <v>113965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -4879,13 +4879,13 @@
         <v>101137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -4894,19 +4894,19 @@
         <v>215102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4915,13 +4915,13 @@
         <v>631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4930,13 +4930,13 @@
         <v>1932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4945,13 +4945,13 @@
         <v>2563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>167</v>
@@ -4981,13 +4981,13 @@
         <v>103069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -4996,117 +4996,117 @@
         <v>217665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="D10" s="7">
-        <v>173134</v>
+        <v>245537</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="7">
         <v>279</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>235</v>
-      </c>
       <c r="I10" s="7">
-        <v>167891</v>
+        <v>191575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>470</v>
+        <v>616</v>
       </c>
       <c r="N10" s="7">
-        <v>341026</v>
+        <v>437112</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1316</v>
+        <v>2467</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2467</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4173</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,78 +5115,78 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="D12" s="7">
-        <v>174450</v>
+        <v>248004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="I12" s="7">
-        <v>170748</v>
+        <v>191575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>476</v>
+        <v>619</v>
       </c>
       <c r="N12" s="7">
-        <v>345199</v>
+        <v>439579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>12174</v>
+        <v>170158</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I13" s="7">
-        <v>16338</v>
+        <v>163539</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>293</v>
@@ -5195,13 +5195,13 @@
         <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="N13" s="7">
-        <v>28511</v>
+        <v>333697</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>295</v>
@@ -5210,58 +5210,58 @@
         <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>524</v>
+        <v>2220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>449</v>
+        <v>4363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>974</v>
+        <v>6583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,153 +5270,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>172378</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>340280</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>170158</v>
+        <v>173134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I16" s="7">
-        <v>163539</v>
+        <v>167891</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="N16" s="7">
-        <v>333697</v>
+        <v>341026</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2220</v>
+        <v>1316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4363</v>
+        <v>2857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>6583</v>
+        <v>4173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,49 +5425,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D18" s="7">
-        <v>172378</v>
+        <v>174450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>170748</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>340280</v>
+        <v>345199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5484,7 @@
         <v>714969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>317</v>
@@ -5505,7 +5505,7 @@
         <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>1889</v>
@@ -5520,13 +5520,13 @@
         <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -5535,7 +5535,7 @@
         <v>7158</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>322</v>
@@ -5553,7 +5553,7 @@
         <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>186</v>
@@ -5568,7 +5568,7 @@
         <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>326</v>
@@ -5586,13 +5586,13 @@
         <v>722127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>939</v>
@@ -5601,13 +5601,13 @@
         <v>650081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1911</v>
@@ -5616,13 +5616,13 @@
         <v>1372208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149D2A57-D143-4CCB-9812-71C63E454444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{449886BE-6BA3-4E4C-B122-8FB7E15D90CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{437ED0B3-C870-445E-80DF-A1F9D988435E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FC146DA-A59A-4E7B-B118-8FACCC7C7D24}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="326">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,937 +107,916 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>96,14%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>96,65%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,39%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1027,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1126,39 +1123,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1210,7 +1207,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1321,13 +1318,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1336,6 +1326,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1400,19 +1397,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94A40F0-F443-423D-A9E7-6BDE58AC78BC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2794D32C-A2A2-480E-94DB-1BD9D3301446}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1529,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,34 +1561,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,10 +1597,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1595,34 +1612,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1654,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1652,13 +1669,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1667,13 +1684,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,40 +1701,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>124863</v>
+        <v>1436</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>112705</v>
+        <v>1245</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>237569</v>
+        <v>2681</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1735,40 +1752,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D8" s="7">
-        <v>1436</v>
+        <v>124863</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="I8" s="7">
-        <v>1245</v>
+        <v>112705</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="N8" s="7">
-        <v>2681</v>
+        <v>237569</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1792,13 +1809,13 @@
         <v>126299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>171</v>
@@ -1807,13 +1824,13 @@
         <v>113950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>362</v>
@@ -1822,13 +1839,13 @@
         <v>240250</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>204934</v>
+        <v>3293</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1854,10 +1871,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>189948</v>
+        <v>3258</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>41</v>
@@ -1869,10 +1886,10 @@
         <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>394882</v>
+        <v>6551</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>44</v>
@@ -1890,10 +1907,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>3293</v>
+        <v>204934</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>47</v>
@@ -1905,10 +1922,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>3258</v>
+        <v>189948</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>50</v>
@@ -1920,10 +1937,10 @@
         <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>615</v>
       </c>
       <c r="N11" s="7">
-        <v>6551</v>
+        <v>394882</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>53</v>
@@ -1947,13 +1964,13 @@
         <v>208227</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>309</v>
@@ -1962,13 +1979,13 @@
         <v>193206</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>625</v>
@@ -1977,13 +1994,13 @@
         <v>401433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,10 +2011,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>146442</v>
+        <v>2732</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>57</v>
@@ -2009,25 +2026,25 @@
         <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>134628</v>
+        <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>281070</v>
+        <v>3785</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>62</v>
@@ -2045,10 +2062,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>2732</v>
+        <v>146442</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>65</v>
@@ -2060,25 +2077,25 @@
         <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>1053</v>
+        <v>134628</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="N14" s="7">
-        <v>3785</v>
+        <v>281070</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>70</v>
@@ -2102,13 +2119,13 @@
         <v>149174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>225</v>
@@ -2117,13 +2134,13 @@
         <v>135681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>456</v>
@@ -2132,13 +2149,13 @@
         <v>284855</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,25 +2166,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>205123</v>
+        <v>1350</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>201675</v>
+        <v>3277</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>76</v>
@@ -2176,22 +2193,22 @@
         <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>566</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>406799</v>
+        <v>4626</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,49 +2217,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D17" s="7">
-        <v>1350</v>
+        <v>205123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="I17" s="7">
-        <v>3276</v>
+        <v>201675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>566</v>
       </c>
       <c r="N17" s="7">
-        <v>4626</v>
+        <v>406799</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,28 +2274,28 @@
         <v>206473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
       </c>
       <c r="I18" s="7">
-        <v>204951</v>
+        <v>204952</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>572</v>
@@ -2287,13 +2304,13 @@
         <v>411425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,49 +2321,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>706808</v>
+        <v>8810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
-        <v>989</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>661681</v>
+        <v>8832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>2051</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>1368488</v>
+        <v>17642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,49 +2372,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>8810</v>
+        <v>706808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>989</v>
       </c>
       <c r="I20" s="7">
-        <v>8832</v>
+        <v>661681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>2051</v>
       </c>
       <c r="N20" s="7">
-        <v>17642</v>
+        <v>1368488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2429,13 @@
         <v>715618</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -2427,13 +2444,13 @@
         <v>670513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2077</v>
@@ -2442,13 +2459,18 @@
         <v>1386130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2469,8 +2491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F49197-01AE-4342-932F-75C0CBC1DBD9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B56EA-844C-4A5D-A2F3-8BB2A493B730}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2486,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21849</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>17908</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>39757</v>
+        <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2660,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>1001</v>
+        <v>21849</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>17908</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>1001</v>
+        <v>39757</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2717,13 @@
         <v>22850</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -2710,13 +2732,13 @@
         <v>17908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -2725,13 +2747,13 @@
         <v>40758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2764,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>116666</v>
+        <v>2103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>104669</v>
+        <v>2821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>312</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>221335</v>
+        <v>4924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2815,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="D8" s="7">
-        <v>2103</v>
+        <v>116666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>2821</v>
+        <v>104669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="N8" s="7">
-        <v>4924</v>
+        <v>221335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2872,13 @@
         <v>118769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -2865,13 +2887,13 @@
         <v>107490</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -2880,13 +2902,13 @@
         <v>226259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,40 +2919,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>199810</v>
+        <v>3850</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>181870</v>
+        <v>665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>570</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>381679</v>
+        <v>4516</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>136</v>
@@ -2948,10 +2970,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7">
-        <v>3850</v>
+        <v>199810</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>139</v>
@@ -2963,34 +2985,34 @@
         <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>665</v>
+        <v>181870</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>570</v>
+      </c>
+      <c r="N11" s="7">
+        <v>381679</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4516</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3027,13 @@
         <v>203660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>282</v>
@@ -3020,13 +3042,13 @@
         <v>182535</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>577</v>
@@ -3035,13 +3057,13 @@
         <v>386195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,49 +3074,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>150443</v>
+        <v>1187</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1969</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>219</v>
-      </c>
-      <c r="I13" s="7">
-        <v>140639</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3157</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="7">
-        <v>451</v>
-      </c>
-      <c r="N13" s="7">
-        <v>291081</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +3125,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>1187</v>
+        <v>150443</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>219</v>
+      </c>
+      <c r="I14" s="7">
+        <v>140639</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1969</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>451</v>
+      </c>
+      <c r="N14" s="7">
+        <v>291081</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3157</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3182,13 @@
         <v>151630</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>222</v>
@@ -3175,13 +3197,13 @@
         <v>142608</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>456</v>
@@ -3190,13 +3212,13 @@
         <v>294238</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,28 +3229,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>189142</v>
+        <v>3278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7596</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>247</v>
-      </c>
-      <c r="I16" s="7">
-        <v>188220</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>163</v>
@@ -3237,19 +3259,19 @@
         <v>164</v>
       </c>
       <c r="M16" s="7">
-        <v>504</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>377361</v>
+        <v>10875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,49 +3280,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="D17" s="7">
-        <v>3278</v>
+        <v>189142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I17" s="7">
-        <v>7596</v>
+        <v>188220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="N17" s="7">
-        <v>10875</v>
+        <v>377361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3337,13 @@
         <v>192420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>257</v>
@@ -3330,13 +3352,13 @@
         <v>195816</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>519</v>
@@ -3345,13 +3367,13 @@
         <v>388236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3384,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>968</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>677911</v>
+        <v>11419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
-        <v>914</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>633305</v>
+        <v>13052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
-        <v>1882</v>
+        <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>1311215</v>
+        <v>24471</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3435,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>968</v>
       </c>
       <c r="D20" s="7">
-        <v>11419</v>
+        <v>677911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>914</v>
       </c>
       <c r="I20" s="7">
-        <v>13052</v>
+        <v>633305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>35</v>
+        <v>1882</v>
       </c>
       <c r="N20" s="7">
-        <v>24471</v>
+        <v>1311215</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3492,13 @@
         <v>689330</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>932</v>
@@ -3485,13 +3507,13 @@
         <v>646357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1917</v>
@@ -3500,13 +3522,18 @@
         <v>1335686</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3527,8 +3554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6979A3-62A2-4079-A81F-BABE7AB015DD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063623D-3E63-4142-8604-1D9E99245BD4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3544,7 +3571,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3645,49 +3672,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>21971</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>20693</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>42664</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,49 +3723,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>21971</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>20693</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>42664</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3780,13 @@
         <v>21971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3768,13 +3795,13 @@
         <v>20693</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>48</v>
@@ -3783,13 +3810,13 @@
         <v>42664</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,49 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>106257</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>687</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>145</v>
-      </c>
-      <c r="I7" s="7">
-        <v>99483</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>205740</v>
+        <v>2128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3878,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>1441</v>
+        <v>106257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="I8" s="7">
-        <v>687</v>
+        <v>99483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="N8" s="7">
-        <v>2128</v>
+        <v>205740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3935,13 @@
         <v>107698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>146</v>
@@ -3923,13 +3950,13 @@
         <v>100170</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>291</v>
@@ -3938,13 +3965,13 @@
         <v>207868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,49 +3982,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>194181</v>
+        <v>1941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>183636</v>
+        <v>1807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
-        <v>583</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>377816</v>
+        <v>3748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,49 +4033,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="D11" s="7">
-        <v>1941</v>
+        <v>194181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="I11" s="7">
-        <v>1807</v>
+        <v>183636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>583</v>
       </c>
       <c r="N11" s="7">
-        <v>3748</v>
+        <v>377816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4090,13 @@
         <v>196122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>299</v>
@@ -4078,13 +4105,13 @@
         <v>185443</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>589</v>
@@ -4093,13 +4120,13 @@
         <v>381564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4137,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1978</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1094</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3073</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="7">
-        <v>153710</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="7">
-        <v>235</v>
-      </c>
-      <c r="I13" s="7">
-        <v>141477</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>463</v>
-      </c>
-      <c r="N13" s="7">
-        <v>295186</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4188,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>1978</v>
+        <v>153710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>1094</v>
+        <v>141477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>3073</v>
+        <v>295186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4245,13 @@
         <v>155688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>237</v>
@@ -4233,13 +4260,13 @@
         <v>142571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>468</v>
@@ -4248,13 +4275,13 @@
         <v>298259</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4292,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>184618</v>
+        <v>1301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>181562</v>
+        <v>2784</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4085</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="7">
-        <v>505</v>
-      </c>
-      <c r="N16" s="7">
-        <v>366180</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4343,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>1301</v>
+        <v>184618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="I17" s="7">
-        <v>2784</v>
+        <v>181562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>505</v>
       </c>
       <c r="N17" s="7">
-        <v>4085</v>
+        <v>366180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4400,13 @@
         <v>185919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>250</v>
@@ -4388,13 +4415,13 @@
         <v>184346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>511</v>
@@ -4403,13 +4430,13 @@
         <v>370265</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,49 +4447,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>943</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>660737</v>
+        <v>6661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
-        <v>944</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>626850</v>
+        <v>6372</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>13033</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1287587</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,49 +4498,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>6661</v>
+        <v>660737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>944</v>
       </c>
       <c r="I20" s="7">
-        <v>6372</v>
+        <v>626850</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1887</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1287587</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="7">
-        <v>20</v>
-      </c>
-      <c r="N20" s="7">
-        <v>13033</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4555,13 @@
         <v>667398</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>954</v>
@@ -4543,13 +4570,13 @@
         <v>633222</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1907</v>
@@ -4558,13 +4585,18 @@
         <v>1300620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4585,8 +4617,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0855C4-565E-419C-A3B7-7CDA8193530A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AE018-203F-4488-9658-AC4870B1A226}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4602,7 +4634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4703,49 +4735,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12174</v>
+        <v>524</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>449</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16338</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>974</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>45</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28511</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4786,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>524</v>
+        <v>12174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>449</v>
+        <v>16338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>974</v>
+        <v>28511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4843,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4826,13 +4858,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4841,13 +4873,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +4890,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>113965</v>
+        <v>631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1932</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>165</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101137</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>215102</v>
+        <v>2563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4941,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D8" s="7">
-        <v>631</v>
+        <v>113965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>1932</v>
+        <v>101137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="N8" s="7">
-        <v>2563</v>
+        <v>215102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4998,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>167</v>
@@ -4981,13 +5013,13 @@
         <v>103069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -4996,13 +5028,13 @@
         <v>217665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5045,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>245537</v>
+        <v>2467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>191575</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>437112</v>
+        <v>2467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5096,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>2467</v>
+        <v>245537</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>191575</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>616</v>
       </c>
       <c r="N11" s="7">
-        <v>2467</v>
+        <v>437112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5153,13 @@
         <v>248004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>279</v>
@@ -5136,13 +5168,13 @@
         <v>191575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -5151,13 +5183,13 @@
         <v>439579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5200,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>170158</v>
+        <v>2220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4363</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6583</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H13" s="7">
-        <v>221</v>
-      </c>
-      <c r="I13" s="7">
-        <v>163539</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M13" s="7">
-        <v>442</v>
-      </c>
-      <c r="N13" s="7">
-        <v>333697</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5251,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>2220</v>
+        <v>170158</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7">
+        <v>221</v>
+      </c>
+      <c r="I14" s="7">
+        <v>163539</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>442</v>
+      </c>
+      <c r="N14" s="7">
+        <v>333697</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4363</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6583</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5308,13 @@
         <v>172378</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>226</v>
@@ -5291,13 +5323,13 @@
         <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>450</v>
@@ -5306,13 +5338,13 @@
         <v>340280</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5355,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>173134</v>
+        <v>1316</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2857</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>235</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167891</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4173</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M16" s="7">
-        <v>470</v>
-      </c>
-      <c r="N16" s="7">
-        <v>341026</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,40 +5406,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>1316</v>
+        <v>173134</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>235</v>
+      </c>
+      <c r="I17" s="7">
+        <v>167891</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2857</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="N17" s="7">
-        <v>4173</v>
+        <v>341026</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>315</v>
@@ -5416,7 +5448,7 @@
         <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5463,13 @@
         <v>174450</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>239</v>
@@ -5446,13 +5478,13 @@
         <v>170748</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>476</v>
@@ -5461,13 +5493,13 @@
         <v>345199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,49 +5510,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>962</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>714969</v>
+        <v>7158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9601</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H19" s="7">
-        <v>927</v>
-      </c>
-      <c r="I19" s="7">
-        <v>640480</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
-        <v>1889</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>1355449</v>
+        <v>16759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +5561,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>962</v>
       </c>
       <c r="D20" s="7">
-        <v>7158</v>
+        <v>714969</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7">
+        <v>927</v>
+      </c>
+      <c r="I20" s="7">
+        <v>640480</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9601</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>1889</v>
       </c>
       <c r="N20" s="7">
-        <v>16759</v>
+        <v>1355449</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5618,13 @@
         <v>722127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>939</v>
@@ -5601,13 +5633,13 @@
         <v>650081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1911</v>
@@ -5616,13 +5648,18 @@
         <v>1372208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449886BE-6BA3-4E4C-B122-8FB7E15D90CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53C7B4E-5A92-41D8-933A-D65FAEBF58CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FC146DA-A59A-4E7B-B118-8FACCC7C7D24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E54B9925-D605-49B3-BCF5-B2575E784DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,913 +107,907 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,78%</t>
@@ -1428,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2794D32C-A2A2-480E-94DB-1BD9D3301446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D17C7A3-5192-475F-9F81-6CB51C475106}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1868,7 +1862,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1877,13 +1871,13 @@
         <v>3258</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1892,13 +1886,13 @@
         <v>6551</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1907,13 @@
         <v>204934</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -1928,13 +1922,13 @@
         <v>189948</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>615</v>
@@ -1943,13 +1937,13 @@
         <v>394882</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +1999,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2017,13 +2011,13 @@
         <v>2732</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2032,13 +2026,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2047,13 +2041,13 @@
         <v>3785</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2062,13 @@
         <v>146442</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -2083,10 +2077,10 @@
         <v>134628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2098,13 +2092,13 @@
         <v>281070</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2172,28 +2166,28 @@
         <v>1350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2205,10 +2199,10 @@
         <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,10 +2217,10 @@
         <v>205123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2238,13 +2232,13 @@
         <v>201675</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>566</v>
@@ -2256,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2280,7 @@
         <v>268</v>
       </c>
       <c r="I18" s="7">
-        <v>204952</v>
+        <v>204951</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2327,13 +2321,13 @@
         <v>8810</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2342,13 +2336,13 @@
         <v>8832</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2357,13 +2351,13 @@
         <v>17642</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2372,13 @@
         <v>706808</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>989</v>
@@ -2491,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B56EA-844C-4A5D-A2F3-8BB2A493B730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9D5E41-F1CD-4C9F-BBA0-4934277821D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,10 +2782,10 @@
         <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2800,13 +2794,13 @@
         <v>4924</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2836,7 @@
         <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -2851,10 +2845,10 @@
         <v>221335</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>131</v>
@@ -2946,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2955,13 +2949,13 @@
         <v>4516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,7 +2988,7 @@
         <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3006,10 +3000,10 @@
         <v>381679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>145</v>
@@ -3068,7 +3062,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3080,7 +3074,7 @@
         <v>1187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -3098,10 +3092,10 @@
         <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3110,13 +3104,13 @@
         <v>3157</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,10 +3125,10 @@
         <v>150443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3146,13 +3140,13 @@
         <v>140639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -3161,13 +3155,13 @@
         <v>291081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3229,13 @@
         <v>3278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3250,13 +3244,13 @@
         <v>7596</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3265,13 +3259,13 @@
         <v>10875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3280,13 @@
         <v>189142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -3301,13 +3295,13 @@
         <v>188220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>504</v>
@@ -3316,13 +3310,13 @@
         <v>377361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3384,13 @@
         <v>11419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3405,13 +3399,13 @@
         <v>13052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3420,13 +3414,13 @@
         <v>24471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3435,13 @@
         <v>677911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>914</v>
@@ -3456,13 +3450,13 @@
         <v>633305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>1882</v>
@@ -3471,13 +3465,13 @@
         <v>1311215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,7 +3548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063623D-3E63-4142-8604-1D9E99245BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B618A5-D57C-4EF1-91DC-32ED49D922EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3684,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3699,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3714,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3747,7 +3741,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3762,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3833,13 +3827,13 @@
         <v>1441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3848,13 +3842,13 @@
         <v>687</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3863,13 +3857,13 @@
         <v>2128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,10 +3878,10 @@
         <v>106257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3899,10 +3893,10 @@
         <v>99483</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3914,13 +3908,13 @@
         <v>205740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3982,13 @@
         <v>1941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4003,13 +3997,13 @@
         <v>1807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4018,13 +4012,13 @@
         <v>3748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4033,13 @@
         <v>194181</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4054,13 +4048,13 @@
         <v>183636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>583</v>
@@ -4069,13 +4063,13 @@
         <v>377816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,7 +4125,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4143,13 +4137,13 @@
         <v>1978</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4158,13 +4152,13 @@
         <v>1094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4173,13 +4167,13 @@
         <v>3073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,10 +4191,10 @@
         <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -4209,10 +4203,10 @@
         <v>141477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -4224,13 +4218,13 @@
         <v>295186</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4280,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4304,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4313,13 +4307,13 @@
         <v>2784</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4328,13 +4322,13 @@
         <v>4085</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,10 +4343,10 @@
         <v>184618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4364,13 +4358,13 @@
         <v>181562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4379,13 +4373,13 @@
         <v>366180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4447,13 @@
         <v>6661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4468,13 +4462,13 @@
         <v>6372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4483,13 +4477,13 @@
         <v>13033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4498,13 @@
         <v>660737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>944</v>
@@ -4519,13 +4513,13 @@
         <v>626850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>1887</v>
@@ -4534,13 +4528,13 @@
         <v>1287587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AE018-203F-4488-9658-AC4870B1A226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D092EDD-A1B7-48EB-9D56-A915A12EF0D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4741,13 +4735,13 @@
         <v>524</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4756,13 +4750,13 @@
         <v>449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4771,13 +4765,13 @@
         <v>974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,10 +4786,10 @@
         <v>12174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4807,10 +4801,10 @@
         <v>16338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4822,10 +4816,10 @@
         <v>28511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4896,13 +4890,13 @@
         <v>631</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4911,13 +4905,13 @@
         <v>1932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4926,13 +4920,13 @@
         <v>2563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,10 +4941,10 @@
         <v>113965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4962,10 +4956,10 @@
         <v>101137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4977,13 +4971,13 @@
         <v>215102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5045,13 @@
         <v>2467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5072,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5081,13 +5075,13 @@
         <v>2467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,10 +5096,10 @@
         <v>245537</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>281</v>
@@ -5120,7 +5114,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5132,13 +5126,13 @@
         <v>437112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5188,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5206,13 +5200,13 @@
         <v>2220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5221,13 +5215,13 @@
         <v>4363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5236,13 +5230,13 @@
         <v>6583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5251,13 @@
         <v>170158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -5272,13 +5266,13 @@
         <v>163539</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -5287,13 +5281,13 @@
         <v>333697</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5361,13 +5355,13 @@
         <v>1316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5376,13 +5370,13 @@
         <v>2857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5391,13 +5385,13 @@
         <v>4173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,10 +5406,10 @@
         <v>173134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -5427,13 +5421,13 @@
         <v>167891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>470</v>
@@ -5442,13 +5436,13 @@
         <v>341026</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,10 +5510,10 @@
         <v>7158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>116</v>
@@ -5531,13 +5525,13 @@
         <v>9601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5546,13 +5540,13 @@
         <v>16759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5561,13 @@
         <v>714969</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>927</v>
@@ -5582,13 +5576,13 @@
         <v>640480</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>1889</v>
@@ -5597,13 +5591,13 @@
         <v>1355449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53C7B4E-5A92-41D8-933A-D65FAEBF58CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2C2643-2185-4539-B099-C6081469E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E54B9925-D605-49B3-BCF5-B2575E784DBC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{19F62ED0-440A-4BA1-8E71-A972EBA0214E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,949 +68,868 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D17C7A3-5192-475F-9F81-6CB51C475106}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4658582-87E8-4F49-BE34-804F22B11665}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1540,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1555,85 +1474,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2681</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>135429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>150307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>420</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>285737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,153 +1561,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>136674</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>151743</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>288418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1436</v>
+        <v>3258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1245</v>
+        <v>3293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>2681</v>
+        <v>6551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7">
-        <v>124863</v>
+        <v>189948</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>112705</v>
+        <v>204934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>358</v>
+        <v>615</v>
       </c>
       <c r="N8" s="7">
-        <v>237569</v>
+        <v>394882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,153 +1716,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="D9" s="7">
-        <v>126299</v>
+        <v>193206</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>113950</v>
+        <v>208227</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>362</v>
+        <v>625</v>
       </c>
       <c r="N9" s="7">
-        <v>240250</v>
+        <v>401433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3293</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>3258</v>
+        <v>2732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>6551</v>
+        <v>3785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>204934</v>
+        <v>134628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>189948</v>
+        <v>146442</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>615</v>
+        <v>450</v>
       </c>
       <c r="N11" s="7">
-        <v>394882</v>
+        <v>281070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,54 +1871,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>208227</v>
+        <v>135681</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>193206</v>
+        <v>149174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>625</v>
+        <v>456</v>
       </c>
       <c r="N12" s="7">
-        <v>401433</v>
+        <v>284855</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2008,97 +1927,97 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2732</v>
+        <v>3276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1053</v>
+        <v>1350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>3785</v>
+        <v>4626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>146442</v>
+        <v>201675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="I14" s="7">
-        <v>134628</v>
+        <v>205123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="N14" s="7">
-        <v>281070</v>
+        <v>406799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,153 +2026,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="D15" s="7">
-        <v>149174</v>
+        <v>204951</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="I15" s="7">
-        <v>135681</v>
+        <v>206473</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="N15" s="7">
-        <v>284855</v>
+        <v>411425</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>1350</v>
+        <v>8832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>3276</v>
+        <v>8810</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>4626</v>
+        <v>17642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>302</v>
+        <v>989</v>
       </c>
       <c r="D17" s="7">
-        <v>205123</v>
+        <v>661681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>264</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>201675</v>
+        <v>706808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
-        <v>566</v>
+        <v>2051</v>
       </c>
       <c r="N17" s="7">
-        <v>406799</v>
+        <v>1368489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,217 +2181,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>304</v>
+        <v>1002</v>
       </c>
       <c r="D18" s="7">
-        <v>206473</v>
+        <v>670513</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>268</v>
+        <v>1075</v>
       </c>
       <c r="I18" s="7">
-        <v>204951</v>
+        <v>715618</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>572</v>
+        <v>2077</v>
       </c>
       <c r="N18" s="7">
-        <v>411425</v>
+        <v>1386131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8810</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8832</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>26</v>
-      </c>
-      <c r="N19" s="7">
-        <v>17642</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>706808</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7">
-        <v>989</v>
-      </c>
-      <c r="I20" s="7">
-        <v>661681</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2051</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1368488</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1075</v>
-      </c>
-      <c r="D21" s="7">
-        <v>715618</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I21" s="7">
-        <v>670513</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1386130</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2485,8 +2248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9D5E41-F1CD-4C9F-BBA0-4934277821D3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84301473-2B5B-44E9-BCC4-98BB45035677}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2502,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2603,100 +2366,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1001</v>
+        <v>2821</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1001</v>
+        <v>5924</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>21849</v>
+        <v>122577</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7">
+        <v>190</v>
+      </c>
+      <c r="I5" s="7">
+        <v>138516</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="7">
+        <v>357</v>
+      </c>
+      <c r="N5" s="7">
+        <v>261093</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17908</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7">
-        <v>39757</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,153 +2468,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>22850</v>
+        <v>125398</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>17908</v>
+        <v>141619</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>40758</v>
+        <v>267017</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2103</v>
+        <v>665</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3850</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2821</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>4924</v>
+        <v>4516</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="D8" s="7">
-        <v>116666</v>
+        <v>181870</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>289</v>
+      </c>
+      <c r="I8" s="7">
+        <v>199810</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="7">
-        <v>146</v>
-      </c>
-      <c r="I8" s="7">
-        <v>104669</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>570</v>
+      </c>
+      <c r="N8" s="7">
+        <v>381679</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="7">
-        <v>312</v>
-      </c>
-      <c r="N8" s="7">
-        <v>221335</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,153 +2623,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="D9" s="7">
-        <v>118769</v>
+        <v>182535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="I9" s="7">
-        <v>107490</v>
+        <v>203660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>577</v>
       </c>
       <c r="N9" s="7">
-        <v>226259</v>
+        <v>386195</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3850</v>
+        <v>1969</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1187</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3157</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>665</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4516</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>199810</v>
+        <v>140639</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>232</v>
+      </c>
+      <c r="I11" s="7">
+        <v>150443</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7">
+        <v>451</v>
+      </c>
+      <c r="N11" s="7">
+        <v>291081</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="7">
-        <v>281</v>
-      </c>
-      <c r="I11" s="7">
-        <v>181870</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="7">
-        <v>570</v>
-      </c>
-      <c r="N11" s="7">
-        <v>381679</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,153 +2778,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>203660</v>
+        <v>142608</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="I12" s="7">
-        <v>182535</v>
+        <v>151630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>577</v>
+        <v>456</v>
       </c>
       <c r="N12" s="7">
-        <v>386195</v>
+        <v>294238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>1187</v>
+        <v>7596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3278</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1969</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10875</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3157</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>150443</v>
+        <v>188220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="7">
+        <v>257</v>
+      </c>
+      <c r="I14" s="7">
+        <v>189142</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>219</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140639</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>504</v>
+      </c>
+      <c r="N14" s="7">
+        <v>377361</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7">
-        <v>451</v>
-      </c>
-      <c r="N14" s="7">
-        <v>291081</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,153 +2933,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D15" s="7">
-        <v>151630</v>
+        <v>195816</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="I15" s="7">
-        <v>142608</v>
+        <v>192420</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="N15" s="7">
-        <v>294238</v>
+        <v>388236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>3278</v>
+        <v>13052</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11419</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7596</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>35</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24471</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10875</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>257</v>
+        <v>914</v>
       </c>
       <c r="D17" s="7">
-        <v>189142</v>
+        <v>633305</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>968</v>
+      </c>
+      <c r="I17" s="7">
+        <v>677911</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="7">
-        <v>247</v>
-      </c>
-      <c r="I17" s="7">
-        <v>188220</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1882</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1311215</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M17" s="7">
-        <v>504</v>
-      </c>
-      <c r="N17" s="7">
-        <v>377361</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,217 +3088,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>262</v>
+        <v>932</v>
       </c>
       <c r="D18" s="7">
-        <v>192420</v>
+        <v>646357</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>257</v>
+        <v>985</v>
       </c>
       <c r="I18" s="7">
-        <v>195816</v>
+        <v>689330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>519</v>
+        <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>388236</v>
+        <v>1335686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11419</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13052</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="7">
-        <v>35</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24471</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>968</v>
-      </c>
-      <c r="D20" s="7">
-        <v>677911</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="7">
-        <v>914</v>
-      </c>
-      <c r="I20" s="7">
-        <v>633305</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1882</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1311215</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>985</v>
-      </c>
-      <c r="D21" s="7">
-        <v>689330</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>932</v>
-      </c>
-      <c r="I21" s="7">
-        <v>646357</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1335686</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3548,8 +3155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B618A5-D57C-4EF1-91DC-32ED49D922EA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E712693-24FD-4332-B412-7E8E8B3C7AB6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3565,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3666,100 +3273,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>21971</v>
+        <v>120176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
+        <v>169</v>
+      </c>
+      <c r="I5" s="7">
+        <v>128228</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7">
-        <v>20693</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="N5" s="7">
-        <v>42664</v>
+        <v>248404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,153 +3375,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>21971</v>
+        <v>120863</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>20693</v>
+        <v>129669</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="N6" s="7">
-        <v>42664</v>
+        <v>250532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1441</v>
+        <v>1807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>687</v>
+        <v>1941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>2128</v>
+        <v>3748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="D8" s="7">
-        <v>106257</v>
+        <v>183636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="I8" s="7">
-        <v>99483</v>
+        <v>194181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
-        <v>288</v>
+        <v>583</v>
       </c>
       <c r="N8" s="7">
-        <v>205740</v>
+        <v>377816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,153 +3530,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D9" s="7">
-        <v>107698</v>
+        <v>185443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="I9" s="7">
-        <v>100170</v>
+        <v>196122</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>291</v>
+        <v>589</v>
       </c>
       <c r="N9" s="7">
-        <v>207868</v>
+        <v>381564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1941</v>
+        <v>1094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1807</v>
+        <v>1978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3748</v>
+        <v>3073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>194181</v>
+        <v>141477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>183636</v>
+        <v>153710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>583</v>
+        <v>463</v>
       </c>
       <c r="N11" s="7">
-        <v>377816</v>
+        <v>295186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,153 +3685,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="D12" s="7">
-        <v>196122</v>
+        <v>142571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>185443</v>
+        <v>155688</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>589</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>381564</v>
+        <v>298259</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1978</v>
+        <v>2784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1094</v>
+        <v>1301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>3073</v>
+        <v>4085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>153710</v>
+        <v>181562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>141477</v>
+        <v>184618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>295186</v>
+        <v>366180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,150 +3840,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7">
-        <v>155688</v>
+        <v>184346</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="I15" s="7">
-        <v>142571</v>
+        <v>185919</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="N15" s="7">
-        <v>298259</v>
+        <v>370265</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>1301</v>
+        <v>6372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>2784</v>
+        <v>6661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>4085</v>
+        <v>13033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>259</v>
+        <v>944</v>
       </c>
       <c r="D17" s="7">
-        <v>184618</v>
+        <v>626850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
-        <v>246</v>
+        <v>943</v>
       </c>
       <c r="I17" s="7">
-        <v>181562</v>
+        <v>660737</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
-        <v>505</v>
+        <v>1887</v>
       </c>
       <c r="N17" s="7">
-        <v>366180</v>
+        <v>1287587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>232</v>
@@ -4388,217 +3995,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>261</v>
+        <v>954</v>
       </c>
       <c r="D18" s="7">
-        <v>185919</v>
+        <v>633222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>250</v>
+        <v>953</v>
       </c>
       <c r="I18" s="7">
-        <v>184346</v>
+        <v>667398</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>511</v>
+        <v>1907</v>
       </c>
       <c r="N18" s="7">
-        <v>370265</v>
+        <v>1300620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6661</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6372</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="7">
-        <v>20</v>
-      </c>
-      <c r="N19" s="7">
-        <v>13033</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>943</v>
-      </c>
-      <c r="D20" s="7">
-        <v>660737</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" s="7">
-        <v>944</v>
-      </c>
-      <c r="I20" s="7">
-        <v>626850</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1287587</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>953</v>
-      </c>
-      <c r="D21" s="7">
-        <v>667398</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>954</v>
-      </c>
-      <c r="I21" s="7">
-        <v>633222</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1907</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1300620</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4611,8 +4062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D092EDD-A1B7-48EB-9D56-A915A12EF0D4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980E801-3852-4143-A59A-77B9414DAB30}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4628,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4729,100 +4180,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>524</v>
+        <v>2388</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>449</v>
+        <v>1309</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>974</v>
+        <v>3697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7">
-        <v>12174</v>
+        <v>114165</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I5" s="7">
-        <v>16338</v>
+        <v>139103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="N5" s="7">
-        <v>28511</v>
+        <v>253269</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,153 +4282,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>116553</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>256966</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1932</v>
+        <v>2429</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2563</v>
+        <v>2429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>113965</v>
+        <v>189729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>101137</v>
+        <v>250569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="N8" s="7">
-        <v>215102</v>
+        <v>440299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,153 +4437,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>189729</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>103069</v>
+        <v>252998</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>619</v>
       </c>
       <c r="N9" s="7">
-        <v>217665</v>
+        <v>442728</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4360</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>2467</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>2467</v>
+        <v>6677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>245537</v>
+        <v>185225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>191575</v>
+        <v>182161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
-        <v>616</v>
+        <v>442</v>
       </c>
       <c r="N11" s="7">
-        <v>437112</v>
+        <v>367386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,153 +4592,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>248004</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="I12" s="7">
-        <v>191575</v>
+        <v>184478</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>439579</v>
+        <v>374063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2220</v>
+        <v>2794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4363</v>
+        <v>1397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>6583</v>
+        <v>4191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>170158</v>
+        <v>163978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>163539</v>
+        <v>179255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="N14" s="7">
-        <v>333697</v>
+        <v>343233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,153 +4747,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>172378</v>
+        <v>166772</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>180652</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>340280</v>
+        <v>347424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>1316</v>
+        <v>9542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7453</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2857</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>4173</v>
+        <v>16995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>927</v>
       </c>
       <c r="D17" s="7">
-        <v>173134</v>
+        <v>653098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="7">
+        <v>962</v>
+      </c>
+      <c r="I17" s="7">
+        <v>751088</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1889</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1404186</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>235</v>
-      </c>
-      <c r="I17" s="7">
-        <v>167891</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M17" s="7">
-        <v>470</v>
-      </c>
-      <c r="N17" s="7">
-        <v>341026</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,217 +4902,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>939</v>
       </c>
       <c r="D18" s="7">
-        <v>174450</v>
+        <v>662640</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>972</v>
       </c>
       <c r="I18" s="7">
-        <v>170748</v>
+        <v>758541</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>1911</v>
       </c>
       <c r="N18" s="7">
-        <v>345199</v>
+        <v>1421181</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7158</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9601</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>22</v>
-      </c>
-      <c r="N19" s="7">
-        <v>16759</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>962</v>
-      </c>
-      <c r="D20" s="7">
-        <v>714969</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>927</v>
-      </c>
-      <c r="I20" s="7">
-        <v>640480</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1889</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1355449</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>972</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722127</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>939</v>
-      </c>
-      <c r="I21" s="7">
-        <v>650081</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1911</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1372208</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
